--- a/战备计算器/S5武器价格.xlsx
+++ b/战备计算器/S5武器价格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor2\Desktop\三角洲行动\三角洲行动计算模拟器\战备计算器\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BB0E38-09CC-466F-9F87-A9F66B92B0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1039CB60-9D85-4745-B2C4-E5245548ADB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{8E229568-CDAF-4C35-BF60-FB3FC6A624B9}"/>
+    <workbookView xWindow="4152" yWindow="5280" windowWidth="23040" windowHeight="11640" xr2:uid="{8E229568-CDAF-4C35-BF60-FB3FC6A624B9}"/>
   </bookViews>
   <sheets>
     <sheet name="夺金模式" sheetId="1" r:id="rId1"/>
@@ -329,13 +329,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -675,10 +675,10 @@
   <dimension ref="A1:G202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -708,21 +708,25 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="3">
+        <v>104751</v>
+      </c>
+      <c r="D3" s="3">
+        <v>92315</v>
+      </c>
       <c r="E3" s="2">
         <f>D3-C3</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="7" t="e">
-        <f>D3/C3-1</f>
-        <v>#DIV/0!</v>
+        <v>-12436</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F21" si="0">D3/C3-1</f>
+        <v>-0.118719630361524</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -741,8 +745,8 @@
         <f>D4-C4</f>
         <v>18638</v>
       </c>
-      <c r="F4" s="7">
-        <f>D4/C4-1</f>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
         <v>0.10572412345636995</v>
       </c>
     </row>
@@ -758,11 +762,11 @@
         <v>88091</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E3:E66" si="0">D5-C5</f>
+        <f t="shared" ref="E5:E64" si="1">D5-C5</f>
         <v>-2036</v>
       </c>
-      <c r="F5" s="7">
-        <f>D5/C5-1</f>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
         <v>-2.2590344735761714E-2</v>
       </c>
     </row>
@@ -778,11 +782,11 @@
         <v>141093</v>
       </c>
       <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>-338</v>
+      </c>
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>-338</v>
-      </c>
-      <c r="F6" s="7">
-        <f>D6/C6-1</f>
         <v>-2.3898579519341379E-3</v>
       </c>
     </row>
@@ -798,11 +802,11 @@
         <v>10603</v>
       </c>
       <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>-1710</v>
+      </c>
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>-1710</v>
-      </c>
-      <c r="F7" s="7">
-        <f>D7/C7-1</f>
         <v>-0.13887760903110535</v>
       </c>
     </row>
@@ -818,11 +822,11 @@
         <v>38821</v>
       </c>
       <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>-8587</v>
+      </c>
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>-8587</v>
-      </c>
-      <c r="F8" s="7">
-        <f>D8/C8-1</f>
         <v>-0.18112976712791085</v>
       </c>
     </row>
@@ -838,11 +842,11 @@
         <v>41419</v>
       </c>
       <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>-8593</v>
+      </c>
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>-8593</v>
-      </c>
-      <c r="F9" s="7">
-        <f>D9/C9-1</f>
         <v>-0.17181876349676073</v>
       </c>
     </row>
@@ -858,11 +862,11 @@
         <v>110456</v>
       </c>
       <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>-9934</v>
+      </c>
+      <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>-9934</v>
-      </c>
-      <c r="F10" s="7">
-        <f>D10/C10-1</f>
         <v>-8.2515159066367638E-2</v>
       </c>
     </row>
@@ -878,11 +882,11 @@
         <v>92339</v>
       </c>
       <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>1937</v>
+      </c>
+      <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>1937</v>
-      </c>
-      <c r="F11" s="7">
-        <f>D11/C11-1</f>
         <v>2.1426517112453247E-2</v>
       </c>
     </row>
@@ -898,11 +902,11 @@
         <v>40745</v>
       </c>
       <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>-7704</v>
+      </c>
+      <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>-7704</v>
-      </c>
-      <c r="F12" s="7">
-        <f>D12/C12-1</f>
         <v>-0.15901256991888379</v>
       </c>
     </row>
@@ -918,11 +922,11 @@
         <v>103373</v>
       </c>
       <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>7259</v>
+      </c>
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>7259</v>
-      </c>
-      <c r="F13" s="7">
-        <f>D13/C13-1</f>
         <v>7.5524897517531331E-2</v>
       </c>
     </row>
@@ -938,11 +942,11 @@
         <v>106351</v>
       </c>
       <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>-15963</v>
+      </c>
+      <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>-15963</v>
-      </c>
-      <c r="F14" s="7">
-        <f>D14/C14-1</f>
         <v>-0.13050836371960695</v>
       </c>
     </row>
@@ -958,11 +962,11 @@
         <v>10936</v>
       </c>
       <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>-1345</v>
+      </c>
+      <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>-1345</v>
-      </c>
-      <c r="F15" s="7">
-        <f>D15/C15-1</f>
         <v>-0.10951876882989986</v>
       </c>
     </row>
@@ -978,11 +982,11 @@
         <v>135576</v>
       </c>
       <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>2922</v>
+      </c>
+      <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>2922</v>
-      </c>
-      <c r="F16" s="7">
-        <f>D16/C16-1</f>
         <v>2.2027228730381321E-2</v>
       </c>
     </row>
@@ -998,11 +1002,11 @@
         <v>154191</v>
       </c>
       <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>4880</v>
+      </c>
+      <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>4880</v>
-      </c>
-      <c r="F17" s="7">
-        <f>D17/C17-1</f>
         <v>3.2683459356644962E-2</v>
       </c>
     </row>
@@ -1018,11 +1022,11 @@
         <v>10563</v>
       </c>
       <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>-1494</v>
+      </c>
+      <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>-1494</v>
-      </c>
-      <c r="F18" s="7">
-        <f>D18/C18-1</f>
         <v>-0.12391142075143069</v>
       </c>
     </row>
@@ -1038,11 +1042,11 @@
         <v>39654</v>
       </c>
       <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>-6964</v>
+      </c>
+      <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>-6964</v>
-      </c>
-      <c r="F19" s="7">
-        <f>D19/C19-1</f>
         <v>-0.14938435797331506</v>
       </c>
     </row>
@@ -1058,11 +1062,11 @@
         <v>101051</v>
       </c>
       <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>7919</v>
+      </c>
+      <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>7919</v>
-      </c>
-      <c r="F20" s="7">
-        <f>D20/C20-1</f>
         <v>8.5029850105226901E-2</v>
       </c>
     </row>
@@ -1078,24 +1082,24 @@
         <v>82828</v>
       </c>
       <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>2395</v>
+      </c>
+      <c r="F21" s="5">
         <f t="shared" si="0"/>
-        <v>2395</v>
-      </c>
-      <c r="F21" s="7">
-        <f>D21/C21-1</f>
         <v>2.9776335583653557E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="F22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1">
       <c r="B24" s="1" t="s">
@@ -1108,11 +1112,11 @@
         <v>53478</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-49485</v>
       </c>
-      <c r="F24" s="7">
-        <f>D24/C24-1</f>
+      <c r="F24" s="5">
+        <f t="shared" ref="F24:F33" si="2">D24/C24-1</f>
         <v>-0.48060953934908657</v>
       </c>
     </row>
@@ -1128,11 +1132,11 @@
         <v>149495</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8700</v>
       </c>
-      <c r="F25" s="7">
-        <f>D25/C25-1</f>
+      <c r="F25" s="5">
+        <f t="shared" si="2"/>
         <v>6.1791967044284135E-2</v>
       </c>
     </row>
@@ -1148,11 +1152,11 @@
         <v>42756</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7479</v>
       </c>
-      <c r="F26" s="7">
-        <f>D26/C26-1</f>
+      <c r="F26" s="5">
+        <f t="shared" si="2"/>
         <v>-0.14888026276500443</v>
       </c>
     </row>
@@ -1168,11 +1172,11 @@
         <v>113948</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-10225</v>
       </c>
-      <c r="F27" s="7">
-        <f>D27/C27-1</f>
+      <c r="F27" s="5">
+        <f t="shared" si="2"/>
         <v>-8.2344793151490236E-2</v>
       </c>
     </row>
@@ -1188,11 +1192,11 @@
         <v>44546</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8785</v>
       </c>
-      <c r="F28" s="7">
-        <f>D28/C28-1</f>
+      <c r="F28" s="5">
+        <f t="shared" si="2"/>
         <v>-0.16472595676060831</v>
       </c>
     </row>
@@ -1208,11 +1212,11 @@
         <v>10627</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1477</v>
       </c>
-      <c r="F29" s="7">
-        <f>D29/C29-1</f>
+      <c r="F29" s="5">
+        <f t="shared" si="2"/>
         <v>-0.12202577660277591</v>
       </c>
     </row>
@@ -1228,11 +1232,11 @@
         <v>10465</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1601</v>
       </c>
-      <c r="F30" s="7">
-        <f>D30/C30-1</f>
+      <c r="F30" s="5">
+        <f t="shared" si="2"/>
         <v>-0.13268688877838553</v>
       </c>
     </row>
@@ -1248,11 +1252,11 @@
         <v>117786</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-12579</v>
       </c>
-      <c r="F31" s="7">
-        <f>D31/C31-1</f>
+      <c r="F31" s="5">
+        <f t="shared" si="2"/>
         <v>-9.6490622483028421E-2</v>
       </c>
     </row>
@@ -1268,11 +1272,11 @@
         <v>107217</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12712</v>
       </c>
-      <c r="F32" s="7">
-        <f>D32/C32-1</f>
+      <c r="F32" s="5">
+        <f t="shared" si="2"/>
         <v>0.13451140151314744</v>
       </c>
     </row>
@@ -1288,24 +1292,24 @@
         <v>45123</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-10249</v>
       </c>
-      <c r="F33" s="7">
-        <f>D33/C33-1</f>
+      <c r="F33" s="5">
+        <f t="shared" si="2"/>
         <v>-0.1850935490861807</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" customHeight="1">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="F34" s="7"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" ht="18" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="18" customHeight="1">
       <c r="B36" s="1" t="s">
@@ -1318,10 +1322,10 @@
         <v>35238</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6917</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="5">
         <f>D36/C36-1</f>
         <v>-0.16408492468271851</v>
       </c>
@@ -1338,10 +1342,10 @@
         <v>4106</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-894</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="5">
         <f>D37/C37-1</f>
         <v>-0.17879999999999996</v>
       </c>
@@ -1358,10 +1362,10 @@
         <v>38473</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7522</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="5">
         <f>D38/C38-1</f>
         <v>-0.16353951516469178</v>
       </c>
@@ -1378,24 +1382,24 @@
         <v>29998</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5882</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="5">
         <f>D39/C39-1</f>
         <v>-0.16393534002229659</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" customHeight="1">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="F40" s="7"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="7"/>
+      <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" ht="18" customHeight="1">
       <c r="A42" s="3"/>
@@ -1409,10 +1413,10 @@
         <v>63501</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-48972</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="5">
         <f>D42/C42-1</f>
         <v>-0.43541116534634983</v>
       </c>
@@ -1429,10 +1433,10 @@
         <v>153050</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1859</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="5">
         <f>D43/C43-1</f>
         <v>-1.2000593897062095E-2</v>
       </c>
@@ -1449,10 +1453,10 @@
         <v>90535</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2167</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="5">
         <f>D44/C44-1</f>
         <v>2.4522451566177716E-2</v>
       </c>
@@ -1469,24 +1473,24 @@
         <v>94399</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2528</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="5">
         <f>D45/C45-1</f>
         <v>-2.6081484003425248E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18" customHeight="1">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="F46" s="7"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" ht="18" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F47" s="7"/>
+      <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" ht="18" customHeight="1">
       <c r="A48" s="3"/>
@@ -1500,11 +1504,11 @@
         <v>97007</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-14024</v>
       </c>
-      <c r="F48" s="7">
-        <f>D48/C48-1</f>
+      <c r="F48" s="5">
+        <f t="shared" ref="F48:F55" si="3">D48/C48-1</f>
         <v>-0.12630706739559228</v>
       </c>
     </row>
@@ -1519,11 +1523,11 @@
         <v>9000</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1799</v>
       </c>
-      <c r="F49" s="7">
-        <f>D49/C49-1</f>
+      <c r="F49" s="5">
+        <f t="shared" si="3"/>
         <v>-0.16658949902768772</v>
       </c>
     </row>
@@ -1539,11 +1543,11 @@
         <v>152990</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8328</v>
       </c>
-      <c r="F50" s="7">
-        <f>D50/C50-1</f>
+      <c r="F50" s="5">
+        <f t="shared" si="3"/>
         <v>-5.1624741194411072E-2</v>
       </c>
     </row>
@@ -1559,11 +1563,11 @@
         <v>35775</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3825</v>
       </c>
-      <c r="F51" s="7">
-        <f>D51/C51-1</f>
+      <c r="F51" s="5">
+        <f t="shared" si="3"/>
         <v>-9.6590909090909061E-2</v>
       </c>
     </row>
@@ -1579,11 +1583,11 @@
         <v>107480</v>
       </c>
       <c r="E52" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-11190</v>
       </c>
-      <c r="F52" s="7">
-        <f>D52/C52-1</f>
+      <c r="F52" s="5">
+        <f t="shared" si="3"/>
         <v>-9.4295104070110436E-2</v>
       </c>
     </row>
@@ -1599,11 +1603,11 @@
         <v>112043</v>
       </c>
       <c r="E53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4057</v>
       </c>
-      <c r="F53" s="7">
-        <f>D53/C53-1</f>
+      <c r="F53" s="5">
+        <f t="shared" si="3"/>
         <v>-3.4944013781223138E-2</v>
       </c>
     </row>
@@ -1619,11 +1623,11 @@
         <v>39500</v>
       </c>
       <c r="E54" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8280</v>
       </c>
-      <c r="F54" s="7">
-        <f>D54/C54-1</f>
+      <c r="F54" s="5">
+        <f t="shared" si="3"/>
         <v>-0.17329426538300541</v>
       </c>
     </row>
@@ -1639,24 +1643,24 @@
         <v>32304</v>
       </c>
       <c r="E55" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5109</v>
       </c>
-      <c r="F55" s="7">
-        <f>D55/C55-1</f>
+      <c r="F55" s="5">
+        <f t="shared" si="3"/>
         <v>-0.13655681180338386</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="18" customHeight="1">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="F56" s="7"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6" ht="18" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F57" s="7"/>
+      <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" ht="18" customHeight="1">
       <c r="A58" s="3"/>
@@ -1670,10 +1674,10 @@
         <v>282717</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-21462</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="5">
         <f>D58/C58-1</f>
         <v>-7.0557139052991769E-2</v>
       </c>
@@ -1689,10 +1693,10 @@
         <v>91433</v>
       </c>
       <c r="E59" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-15755</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="5">
         <f>D59/C59-1</f>
         <v>-0.14698473709743631</v>
       </c>
@@ -1709,10 +1713,10 @@
         <v>50448</v>
       </c>
       <c r="E60" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-20967</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="5">
         <f>D60/C60-1</f>
         <v>-0.2935937828187356</v>
       </c>
@@ -1729,25 +1733,25 @@
         <v>46976</v>
       </c>
       <c r="E61" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-13799</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="5">
         <f>D61/C61-1</f>
         <v>-0.22705059646236114</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="18" customHeight="1">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="F62" s="7"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="F62" s="5"/>
     </row>
     <row r="63" spans="1:6" ht="18" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B63" s="1"/>
-      <c r="F63" s="7"/>
+      <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" ht="18" customHeight="1">
       <c r="A64" s="3"/>
@@ -1761,24 +1765,24 @@
         <v>65333</v>
       </c>
       <c r="E64" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-27667</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="5">
         <f>D64/C64-1</f>
         <v>-0.29749462365591395</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="18" customHeight="1">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="F65" s="7"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="F65" s="5"/>
     </row>
     <row r="66" spans="1:6" ht="18" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F66" s="7"/>
+      <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:6" ht="18" customHeight="1">
       <c r="A67" s="3"/>
@@ -1792,11 +1796,11 @@
         <v>14151</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E73" si="1">D67-C67</f>
+        <f t="shared" ref="E67:E73" si="4">D67-C67</f>
         <v>-3223</v>
       </c>
-      <c r="F67" s="7">
-        <f t="shared" ref="F67:F73" si="2">D67/C67-1</f>
+      <c r="F67" s="5">
+        <f t="shared" ref="F67:F73" si="5">D67/C67-1</f>
         <v>-0.18550707954414647</v>
       </c>
     </row>
@@ -1811,11 +1815,11 @@
         <v>4123</v>
       </c>
       <c r="E68" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-676</v>
       </c>
-      <c r="F68" s="7">
-        <f t="shared" si="2"/>
+      <c r="F68" s="5">
+        <f t="shared" si="5"/>
         <v>-0.14086267972494271</v>
       </c>
     </row>
@@ -1831,11 +1835,11 @@
         <v>14921</v>
       </c>
       <c r="E69" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-5814</v>
       </c>
-      <c r="F69" s="7">
-        <f t="shared" si="2"/>
+      <c r="F69" s="5">
+        <f t="shared" si="5"/>
         <v>-0.28039546660236314</v>
       </c>
     </row>
@@ -1851,11 +1855,11 @@
         <v>14039</v>
       </c>
       <c r="E70" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3335</v>
       </c>
-      <c r="F70" s="7">
-        <f t="shared" si="2"/>
+      <c r="F70" s="5">
+        <f t="shared" si="5"/>
         <v>-0.19195349372625758</v>
       </c>
     </row>
@@ -1871,11 +1875,11 @@
         <v>10734</v>
       </c>
       <c r="E71" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3886</v>
       </c>
-      <c r="F71" s="7">
-        <f t="shared" si="2"/>
+      <c r="F71" s="5">
+        <f t="shared" si="5"/>
         <v>-0.26580027359781122</v>
       </c>
     </row>
@@ -1891,11 +1895,11 @@
         <v>4313</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-486</v>
       </c>
-      <c r="F72" s="7">
-        <f t="shared" si="2"/>
+      <c r="F72" s="5">
+        <f t="shared" si="5"/>
         <v>-0.10127109814544699</v>
       </c>
     </row>
@@ -1911,11 +1915,11 @@
         <v>12996</v>
       </c>
       <c r="E73" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3989</v>
       </c>
-      <c r="F73" s="7">
-        <f t="shared" si="2"/>
+      <c r="F73" s="5">
+        <f t="shared" si="5"/>
         <v>-0.23485428319105095</v>
       </c>
     </row>
